--- a/Excel/Project Work/Formula.xlsx
+++ b/Excel/Project Work/Formula.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Science\data-analysis\Excel\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE5DA8A-F772-4B0E-A554-1053E2C64027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Concatenate" sheetId="1" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -313,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,23 +666,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80D7546-D251-4908-B99A-2A3B4BFE22EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -718,7 +717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -749,7 +748,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -780,7 +779,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -809,7 +808,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -838,7 +837,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -867,7 +866,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -896,7 +895,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -925,7 +924,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -954,7 +953,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -989,7 +988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB977C31-5FD1-4473-A6A1-29ABAD3F7755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -999,17 +998,17 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1302,13 +1301,13 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" t="str">
-        <f t="shared" ref="H3:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1320,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137ACEFD-E950-4ACE-A7FD-83ED10CB531A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1330,13 +1329,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1638,24 +1637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97F3BB1-397D-4AFC-8E96-ABE0D0515A1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1718,8 +1717,12 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>IF(D2:D10 &gt; 30, "Old", "Young")</f>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1747,8 +1750,12 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">IF(D3:D11 &gt; 30, "Old", "Young")</f>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1776,8 +1783,12 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Young</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1805,8 +1816,12 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1834,8 +1849,12 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1863,8 +1882,12 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1892,8 +1915,12 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1921,8 +1948,12 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1949,6 +1980,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Old</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577B4A2A-B2F2-4EC9-9616-29355E7995DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1967,12 +2002,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2036,7 +2071,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2065,7 +2100,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2210,7 +2245,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2239,7 +2274,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2274,7 +2309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC954FE-DA24-43B2-AD9D-17E8CC017065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -2284,13 +2319,13 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2366,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2395,7 +2430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2427,7 +2462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2523,7 +2558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2555,7 +2590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2625,7 +2660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C4862C-FF60-4E24-9054-4C595B8DA66E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -2635,13 +2670,13 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2703,7 +2738,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2733,7 +2768,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2763,7 +2798,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2793,7 +2828,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2823,7 +2858,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2853,7 +2888,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2883,7 +2918,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2913,7 +2948,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2943,10 +2978,10 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
     </row>
   </sheetData>
@@ -2955,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F69BBA-836F-48E1-B067-27B71B706556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -2965,13 +3000,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +3041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3064,7 +3099,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3093,7 +3128,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3122,7 +3157,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3151,7 +3186,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3180,7 +3215,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3209,7 +3244,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3238,7 +3273,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3273,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B9C42-087D-43BC-95CC-49AE54CDC17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3283,14 +3318,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="2"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3328,7 +3363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3357,7 +3392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3386,7 +3421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3444,7 +3479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3473,7 +3508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3502,7 +3537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3531,7 +3566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3560,7 +3595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3589,39 +3624,39 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -3632,7 +3667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D41C5D0-EC67-4288-8B29-30C6E5CFEE73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3642,9 +3677,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3717,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3711,7 +3746,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3740,7 +3775,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3769,7 +3804,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3798,7 +3833,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3827,7 +3862,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3856,7 +3891,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3885,7 +3920,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3914,7 +3949,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3949,7 +3984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D217F6E-9452-40AF-AFA2-377600A25F44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3959,13 +3994,13 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4003,7 +4038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>42253</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4061,7 +4096,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4090,7 +4125,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4119,7 +4154,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4148,7 +4183,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4177,7 +4212,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4235,7 +4270,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>

--- a/Excel/Project Work/Formula.xlsx
+++ b/Excel/Project Work/Formula.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Science\data-analysis\Excel\Project Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice Project\data science\data-analysis\Excel\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDF544-8DC1-4D3E-BD5A-F4549BD07E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,48 @@
     <sheet name="Concatenate" sheetId="10" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="89">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -235,9 +272,6 @@
     <t>Kevin.Malone@DunderMifflin.com</t>
   </si>
   <si>
-    <t>TEXT(H2,"dd/mm/yyyy")</t>
-  </si>
-  <si>
     <t>TRIM(C2)</t>
   </si>
   <si>
@@ -294,11 +328,17 @@
   <si>
     <t>NETWORKDAYS</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Date(conversion)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -562,7 +602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1871,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1921,7 +1961,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3184,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3229,10 +3269,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -4569,7 +4609,7 @@
         <v>Young</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2:K10" ca="1" si="1">ifs(F2:F10="Salesman", "Sales", F2:F10="HR", "Fire Him", F2:F10="Accountant","Give Bonus")</f>
+        <f t="shared" ref="K2:K10" ca="1" si="1">_xludf.ifs(F2:F10="Salesman", "Sales", F2:F10="HR", "Fire Him", F2:F10="Accountant","Give Bonus")</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5856,13 +5896,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -7191,13 +7231,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7280,6 +7322,18 @@
       <c r="J2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">LEFT(B2:B10,3)</f>
+        <v>Jim</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L10">RIGHT(C2:C10,3)</f>
+        <v>ert</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2:M10">RIGHT(H2:H10,4)</f>
+        <v>2001</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -7312,6 +7366,15 @@
       <c r="J3" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="K3" t="str">
+        <v>Pam</v>
+      </c>
+      <c r="L3" t="str">
+        <v>ley</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -7344,6 +7407,15 @@
       <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="K4" t="str">
+        <v>Dwi</v>
+      </c>
+      <c r="L4" t="str">
+        <v>ute</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -7376,6 +7448,15 @@
       <c r="J5" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="K5" t="str">
+        <v>Ang</v>
+      </c>
+      <c r="L5" t="str">
+        <v>tin</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2000</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -7408,6 +7489,15 @@
       <c r="J6" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="K6" t="str">
+        <v>Tob</v>
+      </c>
+      <c r="L6" t="str">
+        <v>son</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -7440,6 +7530,15 @@
       <c r="J7" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="K7" t="str">
+        <v>Mic</v>
+      </c>
+      <c r="L7" t="str">
+        <v>ott</v>
+      </c>
+      <c r="M7" t="str">
+        <v>2001</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -7472,6 +7571,15 @@
       <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="K8" t="str">
+        <v>Mer</v>
+      </c>
+      <c r="L8" t="str">
+        <v>mer</v>
+      </c>
+      <c r="M8" t="str">
+        <v>2003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -7504,6 +7612,15 @@
       <c r="J9" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="K9" t="str">
+        <v>Sta</v>
+      </c>
+      <c r="L9" t="str">
+        <v>son</v>
+      </c>
+      <c r="M9" t="str">
+        <v>2002</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -7535,6 +7652,15 @@
       </c>
       <c r="J10" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Kev</v>
+      </c>
+      <c r="L10" t="str">
+        <v>one</v>
+      </c>
+      <c r="M10" t="str">
+        <v>2003</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8524,20 +8650,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="26" width="13.7109375" customWidth="1"/>
+    <col min="5" max="25" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8568,8 +8696,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
+      <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8600,7 +8731,14 @@
       <c r="I2" s="2">
         <v>42253</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TEXT(I2:I10, "dd/mm/yyyy")</f>
+        <v>06/09/2015</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2:K10">RIGHT(_xlfn.ANCHORARRAY(J2),4)</f>
+        <v>2015</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -8630,7 +8768,12 @@
       <c r="I3" s="2">
         <v>42287</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="J3" t="str">
+        <v>10/10/2015</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2015</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -8660,7 +8803,12 @@
       <c r="I4" s="2">
         <v>42986</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="J4" t="str">
+        <v>08/09/2017</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2017</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -8690,7 +8838,12 @@
       <c r="I5" s="2">
         <v>42341</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="J5" t="str">
+        <v>03/12/2015</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2015</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -8720,7 +8873,12 @@
       <c r="I6" s="2">
         <v>42977</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="J6" t="str">
+        <v>30/08/2017</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2017</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8750,7 +8908,12 @@
       <c r="I7" s="2">
         <v>41528</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="J7" t="str">
+        <v>11/09/2013</v>
+      </c>
+      <c r="K7" t="str">
+        <v>2013</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -8780,7 +8943,12 @@
       <c r="I8" s="2">
         <v>41551</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="J8" t="str">
+        <v>04/10/2013</v>
+      </c>
+      <c r="K8" t="str">
+        <v>2013</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8810,7 +8978,12 @@
       <c r="I9" s="2">
         <v>42116</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="J9" t="str">
+        <v>22/04/2015</v>
+      </c>
+      <c r="K9" t="str">
+        <v>2015</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -8840,7 +9013,12 @@
       <c r="I10" s="2">
         <v>40800</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="J10" t="str">
+        <v>14/09/2011</v>
+      </c>
+      <c r="K10" t="str">
+        <v>2011</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
@@ -9835,7 +10013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -9880,10 +10058,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9952,7 +10130,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1">
         <v>29</v>
@@ -10010,7 +10188,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1">
         <v>32</v>
@@ -10039,7 +10217,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1">
         <v>35</v>
@@ -10097,7 +10275,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1">
         <v>38</v>
@@ -10126,7 +10304,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1">
         <v>31</v>
@@ -11134,7 +11312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -11179,13 +11357,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -14444,7 +14622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -14486,13 +14664,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -15743,7 +15921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -15788,13 +15966,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/Excel/Project Work/Formula.xlsx
+++ b/Excel/Project Work/Formula.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice Project\data science\data-analysis\Excel\Project Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Science\data-analysis\Excel\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDF544-8DC1-4D3E-BD5A-F4549BD07E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Concatenate" sheetId="10" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,14 +43,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="91">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -334,11 +333,17 @@
   <si>
     <t>Date(conversion)</t>
   </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -602,7 +607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1911,13 +1916,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1932,7 +1939,7 @@
     <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,8 +1970,14 @@
       <c r="J1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1992,8 +2005,12 @@
       <c r="I2" s="2">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2:B10," ",C2:C10)</f>
+        <v>Jim Halpert</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -2021,8 +2038,12 @@
       <c r="I3" s="2">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3:B11," ",C3:C11)</f>
+        <v>Pam Beasley</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -2050,8 +2071,12 @@
       <c r="I4" s="2">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Dwight Schrute</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -2079,8 +2104,12 @@
       <c r="I5" s="2">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Angela Martin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -2108,8 +2137,12 @@
       <c r="I6" s="2">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Toby Flenderson</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -2137,8 +2170,12 @@
       <c r="I7" s="2">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Scott</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -2166,8 +2203,12 @@
       <c r="I8" s="2">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Meredith Palmer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -2195,8 +2236,12 @@
       <c r="I9" s="2">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley Hudson</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -2224,16 +2269,20 @@
       <c r="I10" s="2">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Kevin Malone</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H11" s="1" t="str">
-        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -3224,13 +3273,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3303,6 +3354,14 @@
       <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -3332,6 +3391,14 @@
       <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3,I3)</f>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -3361,6 +3428,14 @@
       <c r="I4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3390,6 +3465,14 @@
       <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -3419,6 +3502,14 @@
       <c r="I6" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3448,6 +3539,14 @@
       <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3477,6 +3576,14 @@
       <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3506,6 +3613,14 @@
       <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3534,6 +3649,14 @@
       </c>
       <c r="I10" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4523,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -4609,7 +4732,7 @@
         <v>Young</v>
       </c>
       <c r="K2" s="1" t="e">
-        <f t="shared" ref="K2:K10" ca="1" si="1">_xludf.ifs(F2:F10="Salesman", "Sales", F2:F10="HR", "Fire Him", F2:F10="Accountant","Give Bonus")</f>
+        <f t="shared" ref="K2:K10" ca="1" si="1">ifs(F2:F10="Salesman", "Sales", F2:F10="HR", "Fire Him", F2:F10="Accountant","Give Bonus")</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -5896,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -7231,7 +7354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -8650,13 +8773,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -10013,13 +10136,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10092,6 +10217,10 @@
       <c r="I2" s="2">
         <v>42253</v>
       </c>
+      <c r="J2" t="str">
+        <f>TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -10121,6 +10250,10 @@
       <c r="I3" s="2">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">TRIM(C3:C11)</f>
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -10150,6 +10283,10 @@
       <c r="I4" s="2">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -10179,6 +10316,10 @@
       <c r="I5" s="2">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10208,6 +10349,10 @@
       <c r="I6" s="2">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10237,6 +10382,10 @@
       <c r="I7" s="2">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -10266,6 +10415,10 @@
       <c r="I8" s="2">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -10295,6 +10448,10 @@
       <c r="I9" s="2">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -10323,6 +10480,10 @@
       </c>
       <c r="I10" s="2">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Malone</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11312,13 +11473,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11394,6 +11557,18 @@
       <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(H2:H10,"/","-",1)</f>
+        <v>11-2/2001</v>
+      </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(I2:I10,"/","-",2)</f>
+        <v>9/6-2015</v>
+      </c>
+      <c r="L2" t="str">
+        <f>SUBSTITUTE(H2:H10, "/", "-")</f>
+        <v>11-2-2001</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -11423,6 +11598,18 @@
       <c r="I3" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">SUBSTITUTE(H3:H11,"/","-",1)</f>
+        <v>10-3/1999</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">SUBSTITUTE(I3:I11,"/","-",2)</f>
+        <v>10/10-2015</v>
+      </c>
+      <c r="L3" t="str">
+        <f>SUBSTITUTE(H3:H11, "/", "-")</f>
+        <v>10-3-1999</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -11452,6 +11639,18 @@
       <c r="I4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>7-4/2000</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>9/8-2017</v>
+      </c>
+      <c r="L4" t="str">
+        <f>SUBSTITUTE(H4:H12, "/", "-")</f>
+        <v>7-4-2000</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -11481,6 +11680,18 @@
       <c r="I5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>1-5/2000</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>12/3-2015</v>
+      </c>
+      <c r="L5" t="str">
+        <f>SUBSTITUTE(H5:H13, "/", "-")</f>
+        <v>1-5-2000</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -11510,6 +11721,18 @@
       <c r="I6" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>8/30-2017</v>
+      </c>
+      <c r="L6" t="str">
+        <f>SUBSTITUTE(H6:H14, "/", "-")</f>
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -11539,6 +11762,18 @@
       <c r="I7" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>5-6/2001</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>9/11-2013</v>
+      </c>
+      <c r="L7" t="str">
+        <f>SUBSTITUTE(H7:H15, "/", "-")</f>
+        <v>5-6-2001</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -11568,6 +11803,18 @@
       <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>11-8/2003</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>9/11-2013</v>
+      </c>
+      <c r="L8" t="str">
+        <f>SUBSTITUTE(H8:H16, "/", "-")</f>
+        <v>11-8-2003</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -11597,6 +11844,18 @@
       <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>6-9/2002</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>4/22-2015</v>
+      </c>
+      <c r="L9" t="str">
+        <f>SUBSTITUTE(H9:H17, "/", "-")</f>
+        <v>6-9-2002</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -11625,6 +11884,18 @@
       </c>
       <c r="I10" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>8-10/2003</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>4/22-2015</v>
+      </c>
+      <c r="L10" t="str">
+        <f>SUBSTITUTE(H10:H18, "/", "-")</f>
+        <v>8-10-2003</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -14622,20 +14893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="13" customWidth="1"/>
+    <col min="1" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
+    <col min="14" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14666,14 +14941,15 @@
       <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -14701,8 +14977,24 @@
       <c r="I2" s="2">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(D2:D10,"&lt;30", G2:G10)</f>
+        <v>63000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIF(D2:D10,"&gt;30", G2:G10)</f>
+        <v>293000</v>
+      </c>
+      <c r="M2">
+        <f>SUMIFS(G2:G10,E2:E10,"Female",D2:D10,"&gt;30")</f>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -14730,8 +15022,12 @@
       <c r="I3" s="2">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>SUM(K2,L2)</f>
+        <v>356000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -14759,8 +15055,12 @@
       <c r="I4" s="2">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f>SUMIF(D2:D10,"30", G2:G10)</f>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -14788,8 +15088,12 @@
       <c r="I5" s="2">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>SUM(K3,K4)</f>
+        <v>437000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -14818,7 +15122,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -14847,7 +15151,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -14876,7 +15180,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -14905,7 +15209,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -15921,13 +16225,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16002,6 +16308,18 @@
       </c>
       <c r="I2" s="2">
         <v>42253</v>
+      </c>
+      <c r="J2">
+        <f>COUNT(D2:D10)</f>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G10, "&gt;40000")</f>
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(D2:D10, "&gt;30", E2:E10, "Male")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/Excel/Project Work/Formula.xlsx
+++ b/Excel/Project Work/Formula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice Project\data science\data-analysis\Excel\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDF544-8DC1-4D3E-BD5A-F4549BD07E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BEC522-2299-4D51-9A11-B5C42D58412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -8656,7 +8656,7 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -10019,7 +10019,9 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10092,6 +10094,10 @@
       <c r="I2" s="2">
         <v>42253</v>
       </c>
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:J10">TRIM(C2:C10)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -10121,6 +10127,9 @@
       <c r="I3" s="2">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -10150,6 +10159,9 @@
       <c r="I4" s="2">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -10179,6 +10191,9 @@
       <c r="I5" s="2">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -10208,6 +10223,9 @@
       <c r="I6" s="2">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -10237,6 +10255,9 @@
       <c r="I7" s="2">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -10266,6 +10287,9 @@
       <c r="I8" s="2">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -10295,6 +10319,9 @@
       <c r="I9" s="2">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -10323,6 +10350,9 @@
       </c>
       <c r="I10" s="2">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Malone</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
